--- a/classfiers/mega/welm/nearmiss/WELM_tanh_nearmiss_results.xlsx
+++ b/classfiers/mega/welm/nearmiss/WELM_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.65625</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6747720364741641</v>
+        <v>0.6881606765327696</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8695652173913043</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6614173228346457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6228926353149956</v>
+        <v>0.4386243386243386</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6526315789473685</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E4" t="n">
-        <v>0.836734693877551</v>
+        <v>0.7030752916224814</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6210526315789474</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.5625000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7279411764705883</v>
+        <v>0.6100529100529101</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6526315789473685</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.72</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6744444444444444</v>
+        <v>0.5113636363636364</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6323026315789473</v>
+        <v>0.5735632183908046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6155011696378155</v>
+        <v>0.5003565191128387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.579313399778516</v>
+        <v>0.4786372903422135</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7073569973163487</v>
+        <v>0.5902553706392272</v>
       </c>
     </row>
   </sheetData>
